--- a/code_smell_detection/EI-2021_metrics.xlsx
+++ b/code_smell_detection/EI-2021_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="38">
   <si>
     <t>MethodID</t>
   </si>
@@ -65,61 +65,67 @@
     <t>70</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>setCloudClient(MongoClient)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>setLocalClient(MongoClient)</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>killThread()</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>enableThread()</t>
+  </si>
+  <si>
+    <t>run()</t>
+  </si>
+  <si>
+    <t>insertIntoLocalDB(List&lt;Document&gt;)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>MongoWorker.InnerClass</t>
+  </si>
+  <si>
+    <t>accessMembers()</t>
+  </si>
+  <si>
     <t>13</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>setCloudClient(MongoClient)</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>setLocalClient(MongoClient)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>killThread()</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>enableThread()</t>
-  </si>
-  <si>
-    <t>run()</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>insertIntoLocalDB(List&lt;Document&gt;)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>MongoWorker.InnerClass</t>
-  </si>
-  <si>
-    <t>accessMembers()</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
@@ -316,7 +322,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -325,7 +331,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -343,7 +349,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
@@ -352,7 +358,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -361,7 +367,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -379,7 +385,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
@@ -397,7 +403,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -412,10 +418,10 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -451,7 +457,7 @@
         <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
@@ -466,10 +472,10 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -478,16 +484,16 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
